--- a/SCBAA/2016/NIR.xlsx
+++ b/SCBAA/2016/NIR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBA\Done XLSX - 2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\Desktop\FlaskTuts\application\SCBAA\2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3088E1DE-331A-421D-9202-82F7E967F518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B3A032-67A6-4080-9FF8-374AD9B4219C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8730" yWindow="540" windowWidth="14625" windowHeight="12540" tabRatio="862" firstSheet="6" activeTab="11" xr2:uid="{55A92D14-81C0-4506-9860-A1CA671BF8C6}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="14625" windowHeight="12540" tabRatio="862" firstSheet="6" activeTab="7" xr2:uid="{55A92D14-81C0-4506-9860-A1CA671BF8C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bacolod" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Cadiz" sheetId="5" r:id="rId5"/>
     <sheet name="Canlaon" sheetId="6" r:id="rId6"/>
     <sheet name="Dumaguete" sheetId="7" r:id="rId7"/>
-    <sheet name="Escalente" sheetId="8" r:id="rId8"/>
+    <sheet name="Escalante" sheetId="8" r:id="rId8"/>
     <sheet name="Guihulngan" sheetId="9" r:id="rId9"/>
     <sheet name="Himamaylan" sheetId="10" r:id="rId10"/>
     <sheet name="Kabankalan" sheetId="11" r:id="rId11"/>
@@ -36,6 +36,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -4795,7 +4802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFAD5C9-F430-45B7-8873-551817063EC9}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -20014,8 +20021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F690BC-511E-4BAE-A04E-56F6301F30A5}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SCBAA/2016/NIR.xlsx
+++ b/SCBAA/2016/NIR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566EB7CD-B8A7-4BC6-B68E-4B57E461C98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A9D917-2F61-4B52-803E-F5C89D83EBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="345" windowWidth="14880" windowHeight="7260" tabRatio="862" firstSheet="4" activeTab="4" xr2:uid="{55A92D14-81C0-4506-9860-A1CA671BF8C6}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" tabRatio="862" firstSheet="6" activeTab="12" xr2:uid="{55A92D14-81C0-4506-9860-A1CA671BF8C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bacolod" sheetId="1" r:id="rId1"/>
@@ -872,6 +872,13 @@
     <xf numFmtId="4" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -895,13 +902,6 @@
     </xf>
     <xf numFmtId="40" fontId="21" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1241,54 +1241,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
@@ -1302,22 +1302,22 @@
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="86" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="89" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="87"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -2418,7 +2418,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="F17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2431,54 +2431,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
@@ -2492,22 +2492,22 @@
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="86" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="89" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="87"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -2543,7 +2543,6 @@
         <v>56</v>
       </c>
       <c r="E11" s="58">
-        <f>587978.66+5490406.08</f>
         <v>6078384.7400000002</v>
       </c>
     </row>
@@ -2555,7 +2554,6 @@
         <v>55</v>
       </c>
       <c r="E12" s="58">
-        <f>183135+5132448.45+29700+357727</f>
         <v>5703010.4500000002</v>
       </c>
     </row>
@@ -2567,7 +2565,6 @@
         <v>54</v>
       </c>
       <c r="E13" s="59">
-        <f>10102.46+750767.49+1124634.49</f>
         <v>1885504.44</v>
       </c>
     </row>
@@ -2579,7 +2576,6 @@
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="25">
-        <f>SUM(E11:E13)</f>
         <v>13666899.630000001</v>
       </c>
     </row>
@@ -2600,7 +2596,6 @@
         <v>51</v>
       </c>
       <c r="E16" s="58">
-        <f>3860+430+1441698.62+429611.5+786379.43</f>
         <v>2661979.5500000003</v>
       </c>
     </row>
@@ -2612,7 +2607,6 @@
         <v>50</v>
       </c>
       <c r="E17" s="58">
-        <f>170035+418530+853060+63719+1310952.2+174890.17+140002.57</f>
         <v>3131188.94</v>
       </c>
     </row>
@@ -2635,7 +2629,6 @@
       </c>
       <c r="D19" s="36"/>
       <c r="E19" s="25">
-        <f>SUM(E16:E18)</f>
         <v>6615439.5600000005</v>
       </c>
     </row>
@@ -2826,7 +2819,6 @@
       <c r="C37" s="36"/>
       <c r="D37" s="36"/>
       <c r="E37" s="25">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>609286563.16000009</v>
       </c>
     </row>
@@ -3403,7 +3395,6 @@
       </c>
       <c r="D93" s="36"/>
       <c r="E93" s="17">
-        <f>SUM(E41:E92)</f>
         <v>475736893.05000007</v>
       </c>
     </row>
@@ -3569,7 +3560,6 @@
         <v>2</v>
       </c>
       <c r="E110" s="58">
-        <f>4839894.1+23069208.03</f>
         <v>27909102.130000003</v>
       </c>
       <c r="F110" s="55"/>
@@ -3579,7 +3569,6 @@
         <v>1</v>
       </c>
       <c r="E111" s="4">
-        <f>SUM(E96,E98,E100,E102,E104,E106,E108,E110)</f>
         <v>28913390.230000004</v>
       </c>
     </row>
@@ -3591,7 +3580,6 @@
       <c r="C112" s="57"/>
       <c r="D112" s="57"/>
       <c r="E112" s="1">
-        <f>SUM(E93,E111)</f>
         <v>504650283.28000009</v>
       </c>
     </row>
@@ -3626,54 +3614,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
@@ -3687,22 +3675,22 @@
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="86" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="89" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="87"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -4814,54 +4802,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
@@ -4875,22 +4863,22 @@
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="90" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="93" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="91"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="94"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
@@ -4936,7 +4924,7 @@
       <c r="D12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="92">
+      <c r="E12" s="84">
         <v>0</v>
       </c>
     </row>
@@ -4947,7 +4935,7 @@
       <c r="D13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="92">
+      <c r="E13" s="84">
         <v>0</v>
       </c>
     </row>
@@ -4979,7 +4967,7 @@
       <c r="D16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="92">
+      <c r="E16" s="84">
         <v>0</v>
       </c>
     </row>
@@ -4990,7 +4978,7 @@
       <c r="D17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="92">
+      <c r="E17" s="84">
         <v>0</v>
       </c>
     </row>
@@ -5001,7 +4989,7 @@
       <c r="D18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="92">
+      <c r="E18" s="84">
         <v>0</v>
       </c>
     </row>
@@ -5033,7 +5021,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="92">
+      <c r="E21" s="84">
         <v>0</v>
       </c>
     </row>
@@ -5055,7 +5043,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="7"/>
-      <c r="E23" s="93"/>
+      <c r="E23" s="85"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
@@ -5075,7 +5063,7 @@
       <c r="D25" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="92">
+      <c r="E25" s="84">
         <v>0</v>
       </c>
     </row>
@@ -5086,7 +5074,7 @@
       <c r="D26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="92">
+      <c r="E26" s="84">
         <v>0</v>
       </c>
     </row>
@@ -5117,7 +5105,7 @@
       <c r="D29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="92">
+      <c r="E29" s="84">
         <v>0</v>
       </c>
     </row>
@@ -5128,7 +5116,7 @@
       <c r="D30" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="94">
+      <c r="E30" s="86">
         <v>0</v>
       </c>
     </row>
@@ -5622,7 +5610,7 @@
         <v>20</v>
       </c>
       <c r="D77" s="7"/>
-      <c r="E77" s="94"/>
+      <c r="E77" s="86"/>
     </row>
     <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
@@ -5654,7 +5642,7 @@
         <v>19</v>
       </c>
       <c r="D80" s="7"/>
-      <c r="E80" s="93"/>
+      <c r="E80" s="85"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
@@ -5999,8 +5987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6940CF2-586C-4CB6-B84B-6740A2F5BF8D}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6013,54 +6001,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
@@ -6074,22 +6062,22 @@
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="86" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="89" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="87"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -6125,7 +6113,6 @@
         <v>56</v>
       </c>
       <c r="E11" s="73">
-        <f>2329069.65+12915362.97+1152567.58</f>
         <v>16397000.200000001</v>
       </c>
     </row>
@@ -6137,7 +6124,6 @@
         <v>55</v>
       </c>
       <c r="E12" s="73">
-        <f>49800+13350+2114882.31+645127.79+23400+141800+114300+32592228.26</f>
         <v>35694888.359999999</v>
       </c>
     </row>
@@ -6149,7 +6135,6 @@
         <v>54</v>
       </c>
       <c r="E13" s="74">
-        <f>2694201.48-1152567.58+9826955.99</f>
         <v>11368589.890000001</v>
       </c>
     </row>
@@ -6161,7 +6146,6 @@
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="25">
-        <f>SUM(E11:E13)</f>
         <v>63460478.450000003</v>
       </c>
     </row>
@@ -6204,7 +6188,6 @@
         <v>49</v>
       </c>
       <c r="E18" s="74">
-        <f>647603342.16-621335977-3447928.54</f>
         <v>22819436.619999968</v>
       </c>
     </row>
@@ -6216,7 +6199,6 @@
       </c>
       <c r="D19" s="36"/>
       <c r="E19" s="25">
-        <f>SUM(E16:E18)</f>
         <v>136822777.30999997</v>
       </c>
     </row>
@@ -6332,7 +6314,6 @@
         <v>37</v>
       </c>
       <c r="E30" s="73">
-        <f>215160321.31-600000</f>
         <v>214560321.31</v>
       </c>
     </row>
@@ -6408,7 +6389,6 @@
       <c r="C37" s="36"/>
       <c r="D37" s="36"/>
       <c r="E37" s="25">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1040227482.6099999</v>
       </c>
     </row>
@@ -6454,7 +6434,6 @@
         <v>26</v>
       </c>
       <c r="E42" s="73">
-        <f>134749165.67-430285.66</f>
         <v>134318880.00999999</v>
       </c>
     </row>
@@ -6466,7 +6445,6 @@
         <v>25</v>
       </c>
       <c r="E43" s="73">
-        <f>90614486.39+430285.66</f>
         <v>91044772.049999997</v>
       </c>
     </row>
@@ -6708,7 +6686,6 @@
         <v>26</v>
       </c>
       <c r="E66" s="73">
-        <f>63279239.57</f>
         <v>63279239.57</v>
       </c>
     </row>
@@ -6731,7 +6708,6 @@
         <v>2</v>
       </c>
       <c r="E68" s="73">
-        <f>17876333.23</f>
         <v>17876333.23</v>
       </c>
     </row>
@@ -6877,7 +6853,6 @@
         <v>13</v>
       </c>
       <c r="E82" s="73">
-        <f>94152411.91-252478.54</f>
         <v>93899933.36999999</v>
       </c>
     </row>
@@ -6970,7 +6945,6 @@
         <v>14</v>
       </c>
       <c r="E91" s="73">
-        <f>29823448.57-5318144.77-2718960.75</f>
         <v>21786343.050000001</v>
       </c>
     </row>
@@ -6991,7 +6965,6 @@
       </c>
       <c r="D93" s="36"/>
       <c r="E93" s="17">
-        <f>SUM(E41:E92)</f>
         <v>693393087.12999988</v>
       </c>
     </row>
@@ -7166,7 +7139,6 @@
         <v>1</v>
       </c>
       <c r="E111" s="4">
-        <f>SUM(E96,E98,E100,E102,E104,E106,E108,E110)</f>
         <v>95814573.870000005</v>
       </c>
     </row>
@@ -7178,7 +7150,6 @@
       <c r="C112" s="57"/>
       <c r="D112" s="57"/>
       <c r="E112" s="1">
-        <f>SUM(E93,E111)</f>
         <v>789207660.99999988</v>
       </c>
     </row>
@@ -7213,54 +7184,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
@@ -7274,22 +7245,22 @@
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="86" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="89" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="87"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -8402,54 +8373,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
@@ -8463,22 +8434,22 @@
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="86" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="89" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="87"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -9591,54 +9562,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
@@ -9652,22 +9623,22 @@
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="86" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="89" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="87"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -10783,54 +10754,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
@@ -10844,22 +10815,22 @@
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="86" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="89" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="87"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -11972,54 +11943,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
@@ -12033,22 +12004,22 @@
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="86" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="89" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="87"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -13168,8 +13139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA5643D-FEB2-45F8-AFB8-B901B6542586}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13182,54 +13153,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
@@ -13243,22 +13214,22 @@
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="86" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="89" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="87"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -13294,7 +13265,6 @@
         <v>56</v>
       </c>
       <c r="E11" s="58">
-        <f>13523976.53+8743316.76</f>
         <v>22267293.289999999</v>
       </c>
     </row>
@@ -13317,7 +13287,6 @@
         <v>54</v>
       </c>
       <c r="E13" s="59">
-        <f>4868578.64+1865745.86</f>
         <v>6734324.5</v>
       </c>
     </row>
@@ -13329,7 +13298,6 @@
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="25">
-        <f>SUM(E11:E13)</f>
         <v>46229543.140000001</v>
       </c>
     </row>
@@ -13383,7 +13351,6 @@
       </c>
       <c r="D19" s="36"/>
       <c r="E19" s="25">
-        <f>SUM(E16:E18)</f>
         <v>49633275.909999996</v>
       </c>
     </row>
@@ -13574,7 +13541,6 @@
       <c r="C37" s="36"/>
       <c r="D37" s="36"/>
       <c r="E37" s="25">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>733640495.04999995</v>
       </c>
     </row>
@@ -13673,7 +13639,6 @@
         <v>25</v>
       </c>
       <c r="E47" s="58">
-        <f>29340221.4+17929405.9</f>
         <v>47269627.299999997</v>
       </c>
     </row>
@@ -13685,7 +13650,6 @@
         <v>2</v>
       </c>
       <c r="E48" s="58">
-        <f>1517870+3015670</f>
         <v>4533540</v>
       </c>
     </row>
@@ -14133,7 +14097,6 @@
         <v>14</v>
       </c>
       <c r="E91" s="58">
-        <f>29502117.7</f>
         <v>29502117.699999999</v>
       </c>
     </row>
@@ -14154,7 +14117,6 @@
       </c>
       <c r="D93" s="36"/>
       <c r="E93" s="17">
-        <f>SUM(E41:E92)</f>
         <v>690352528.94000018</v>
       </c>
     </row>
@@ -14320,7 +14282,6 @@
         <v>2</v>
       </c>
       <c r="E110" s="58">
-        <f>6540899.31+61770470.59</f>
         <v>68311369.900000006</v>
       </c>
       <c r="F110" s="55"/>
@@ -14330,7 +14291,6 @@
         <v>1</v>
       </c>
       <c r="E111" s="4">
-        <f>SUM(E96,E98,E100,E102,E104,E106,E108,E110)</f>
         <v>68311369.900000006</v>
       </c>
     </row>
@@ -14342,7 +14302,6 @@
       <c r="C112" s="57"/>
       <c r="D112" s="57"/>
       <c r="E112" s="1">
-        <f>SUM(E93,E111)</f>
         <v>758663898.84000015</v>
       </c>
     </row>
@@ -14377,54 +14336,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
@@ -14438,22 +14397,22 @@
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="86" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="89" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="87"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -15566,54 +15525,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
@@ -15627,22 +15586,22 @@
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="86" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="89" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="87"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -16741,7 +16700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7E0A25-815E-4CBC-BD51-B34C1BC0877D}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
@@ -16755,54 +16714,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
@@ -16816,22 +16775,22 @@
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="86" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="89" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="87"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -16877,7 +16836,7 @@
       <c r="D12" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="92">
+      <c r="E12" s="84">
         <v>0</v>
       </c>
     </row>
@@ -16888,7 +16847,7 @@
       <c r="D13" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="92">
+      <c r="E13" s="84">
         <v>0</v>
       </c>
     </row>
@@ -16920,7 +16879,7 @@
       <c r="D16" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="92">
+      <c r="E16" s="84">
         <v>0</v>
       </c>
     </row>
@@ -16931,7 +16890,7 @@
       <c r="D17" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="92">
+      <c r="E17" s="84">
         <v>0</v>
       </c>
     </row>
@@ -16942,7 +16901,7 @@
       <c r="D18" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="92">
+      <c r="E18" s="84">
         <v>0</v>
       </c>
     </row>
@@ -16974,7 +16933,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="36"/>
-      <c r="E21" s="92">
+      <c r="E21" s="84">
         <v>0</v>
       </c>
     </row>
@@ -16996,7 +16955,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="36"/>
-      <c r="E23" s="93"/>
+      <c r="E23" s="85"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
@@ -17016,7 +16975,7 @@
       <c r="D25" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="92">
+      <c r="E25" s="84">
         <v>0</v>
       </c>
     </row>
@@ -17027,7 +16986,7 @@
       <c r="D26" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="92">
+      <c r="E26" s="84">
         <v>0</v>
       </c>
     </row>
@@ -17058,7 +17017,7 @@
       <c r="D29" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="92">
+      <c r="E29" s="84">
         <v>0</v>
       </c>
     </row>
@@ -17069,7 +17028,7 @@
       <c r="D30" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="94">
+      <c r="E30" s="86">
         <v>0</v>
       </c>
     </row>
@@ -17557,7 +17516,7 @@
         <v>20</v>
       </c>
       <c r="D77" s="36"/>
-      <c r="E77" s="94"/>
+      <c r="E77" s="86"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="36"/>
@@ -17588,7 +17547,7 @@
         <v>19</v>
       </c>
       <c r="D80" s="36"/>
-      <c r="E80" s="93"/>
+      <c r="E80" s="85"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="36"/>
@@ -17933,7 +17892,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="F109" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17946,54 +17905,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
@@ -18007,22 +17966,22 @@
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="86" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="89" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="87"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -18058,7 +18017,6 @@
         <v>56</v>
       </c>
       <c r="E11" s="65">
-        <f>6189196.57+5196522.99</f>
         <v>11385719.560000001</v>
       </c>
     </row>
@@ -18081,7 +18039,6 @@
         <v>54</v>
       </c>
       <c r="E13" s="65">
-        <f>1122849.72+1066397.89</f>
         <v>2189247.61</v>
       </c>
     </row>
@@ -18093,7 +18050,6 @@
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="25">
-        <f>SUM(E11:E13)</f>
         <v>14571266.140000001</v>
       </c>
     </row>
@@ -18125,7 +18081,6 @@
         <v>50</v>
       </c>
       <c r="E17" s="66">
-        <f>16283461.84-810000+30104.25</f>
         <v>15503566.09</v>
       </c>
     </row>
@@ -18137,7 +18092,6 @@
         <v>49</v>
       </c>
       <c r="E18" s="66">
-        <f>666262.33+14760.11</f>
         <v>681022.44</v>
       </c>
     </row>
@@ -18149,7 +18103,6 @@
       </c>
       <c r="D19" s="36"/>
       <c r="E19" s="25">
-        <f>SUM(E16:E18)</f>
         <v>24397528.300000001</v>
       </c>
     </row>
@@ -18340,7 +18293,6 @@
       <c r="C37" s="36"/>
       <c r="D37" s="36"/>
       <c r="E37" s="25">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>380200442.44</v>
       </c>
     </row>
@@ -18917,7 +18869,6 @@
       </c>
       <c r="D93" s="36"/>
       <c r="E93" s="17">
-        <f>SUM(E41:E92)</f>
         <v>345796974.52999997</v>
       </c>
     </row>
@@ -19092,7 +19043,6 @@
         <v>1</v>
       </c>
       <c r="E111" s="4">
-        <f>SUM(E96,E98,E100,E102,E104,E106,E108,E110)</f>
         <v>38404967.480000004</v>
       </c>
     </row>
@@ -19104,7 +19054,6 @@
       <c r="C112" s="57"/>
       <c r="D112" s="57"/>
       <c r="E112" s="1">
-        <f>SUM(E93,E111)</f>
         <v>384201942.00999999</v>
       </c>
     </row>
@@ -19139,54 +19088,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
@@ -19200,22 +19149,22 @@
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="86" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="89" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="87"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -20328,54 +20277,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
@@ -20389,22 +20338,22 @@
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="86" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="89" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="87"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -21503,7 +21452,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21516,54 +21465,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
@@ -21577,22 +21526,22 @@
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="86" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="89" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="87"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -21661,7 +21610,6 @@
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="25">
-        <f>SUM(E11:E13)</f>
         <v>7325132.0700000003</v>
       </c>
     </row>
@@ -21715,7 +21663,6 @@
       </c>
       <c r="D19" s="36"/>
       <c r="E19" s="25">
-        <f>SUM(E16:E18)</f>
         <v>16217001.100000001</v>
       </c>
     </row>
@@ -21906,7 +21853,6 @@
       <c r="C37" s="36"/>
       <c r="D37" s="36"/>
       <c r="E37" s="25">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>558263051.49000001</v>
       </c>
     </row>
@@ -22005,7 +21951,6 @@
         <v>25</v>
       </c>
       <c r="E47" s="67">
-        <f>4316346+1052200</f>
         <v>5368546</v>
       </c>
     </row>
@@ -22484,7 +22429,6 @@
       </c>
       <c r="D93" s="36"/>
       <c r="E93" s="17">
-        <f>SUM(E41:E92)</f>
         <v>397548720.94</v>
       </c>
     </row>
@@ -22660,7 +22604,6 @@
         <v>1</v>
       </c>
       <c r="E111" s="4">
-        <f>SUM(E96,E98,E100,E102,E104,E106,E108,E110)</f>
         <v>150960132.78999999</v>
       </c>
     </row>
@@ -22672,7 +22615,6 @@
       <c r="C112" s="57"/>
       <c r="D112" s="57"/>
       <c r="E112" s="1">
-        <f>SUM(E93,E111)</f>
         <v>548508853.73000002</v>
       </c>
     </row>
